--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J470"/>
+  <dimension ref="A1:J476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16779,6 +16779,216 @@
         <v>319.5366666666667</v>
       </c>
       <c r="J470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>328.2269230769231</v>
+      </c>
+      <c r="C471" t="n">
+        <v>312.8237209302326</v>
+      </c>
+      <c r="D471" t="n">
+        <v>313.2882352941176</v>
+      </c>
+      <c r="E471" t="n">
+        <v>326.5138461538461</v>
+      </c>
+      <c r="F471" t="n">
+        <v>327.1538461538461</v>
+      </c>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>320.2669230769231</v>
+      </c>
+      <c r="C472" t="n">
+        <v>308.3502325581396</v>
+      </c>
+      <c r="D472" t="n">
+        <v>301.1752941176471</v>
+      </c>
+      <c r="E472" t="n">
+        <v>323.7738461538461</v>
+      </c>
+      <c r="F472" t="n">
+        <v>317.3438461538461</v>
+      </c>
+      <c r="G472" t="n">
+        <v>319.4638461538461</v>
+      </c>
+      <c r="H472" t="n">
+        <v>319.0138461538461</v>
+      </c>
+      <c r="I472" t="n">
+        <v>310.7433333333333</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>333.5253846153847</v>
+      </c>
+      <c r="C473" t="n">
+        <v>314.3790697674419</v>
+      </c>
+      <c r="D473" t="n">
+        <v>311.8652941176471</v>
+      </c>
+      <c r="E473" t="n">
+        <v>332.3107692307692</v>
+      </c>
+      <c r="F473" t="n">
+        <v>332.7507692307692</v>
+      </c>
+      <c r="G473" t="n">
+        <v>326.6807692307692</v>
+      </c>
+      <c r="H473" t="n">
+        <v>332.6007692307692</v>
+      </c>
+      <c r="I473" t="n">
+        <v>323.0666666666667</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>332.4938461538461</v>
+      </c>
+      <c r="C474" t="n">
+        <v>320.0116279069767</v>
+      </c>
+      <c r="D474" t="n">
+        <v>317.73</v>
+      </c>
+      <c r="E474" t="n">
+        <v>330.5876923076923</v>
+      </c>
+      <c r="F474" t="n">
+        <v>338.1876923076923</v>
+      </c>
+      <c r="G474" t="n">
+        <v>335.9276923076923</v>
+      </c>
+      <c r="H474" t="n">
+        <v>334.4276923076923</v>
+      </c>
+      <c r="I474" t="n">
+        <v>331.32</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>341.4392307692308</v>
+      </c>
+      <c r="C475" t="n">
+        <v>320.1174418604651</v>
+      </c>
+      <c r="D475" t="n">
+        <v>318.2641176470589</v>
+      </c>
+      <c r="E475" t="n">
+        <v>336.9484615384616</v>
+      </c>
+      <c r="F475" t="n">
+        <v>340.1484615384616</v>
+      </c>
+      <c r="G475" t="n">
+        <v>340.8984615384616</v>
+      </c>
+      <c r="H475" t="n">
+        <v>339.8084615384616</v>
+      </c>
+      <c r="I475" t="n">
+        <v>331.8533333333333</v>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 22:27:08+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>324.3669230769231</v>
+      </c>
+      <c r="C476" t="n">
+        <v>309.1244186046512</v>
+      </c>
+      <c r="D476" t="n">
+        <v>307.0188235294117</v>
+      </c>
+      <c r="E476" t="n">
+        <v>331.4738461538461</v>
+      </c>
+      <c r="F476" t="n">
+        <v>334.7538461538461</v>
+      </c>
+      <c r="G476" t="n">
+        <v>328.9238461538461</v>
+      </c>
+      <c r="H476" t="n">
+        <v>331.1638461538461</v>
+      </c>
+      <c r="I476" t="n">
+        <v>322.7633333333333</v>
+      </c>
+      <c r="J476" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16795,7 +17005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B539"/>
+  <dimension ref="A1:B545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22193,6 +22403,66 @@
       </c>
       <c r="B539" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-02-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -22361,28 +22631,28 @@
         <v>0.1563</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1015411522232798</v>
+        <v>-0.0911257624609806</v>
       </c>
       <c r="J2" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K2" t="n">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004994916686500428</v>
+        <v>0.004121192322684597</v>
       </c>
       <c r="M2" t="n">
-        <v>7.943079312559985</v>
+        <v>7.919424189460503</v>
       </c>
       <c r="N2" t="n">
-        <v>107.181358404862</v>
+        <v>106.5229270754586</v>
       </c>
       <c r="O2" t="n">
-        <v>10.35284301073198</v>
+        <v>10.32099448093344</v>
       </c>
       <c r="P2" t="n">
-        <v>328.9309555036344</v>
+        <v>328.8291111300318</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22432,28 +22702,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2919210498908152</v>
+        <v>-0.2839658995780962</v>
       </c>
       <c r="J3" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K3" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04254569004225461</v>
+        <v>0.04141868977620922</v>
       </c>
       <c r="M3" t="n">
-        <v>7.638592206462584</v>
+        <v>7.593978193823065</v>
       </c>
       <c r="N3" t="n">
-        <v>98.55883948015114</v>
+        <v>97.57324866724699</v>
       </c>
       <c r="O3" t="n">
-        <v>9.927680468274104</v>
+        <v>9.877917223142083</v>
       </c>
       <c r="P3" t="n">
-        <v>318.8041411853953</v>
+        <v>318.7251781005565</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22509,28 +22779,28 @@
         <v>0.0997</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3094419502796026</v>
+        <v>-0.3000577364084669</v>
       </c>
       <c r="J4" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K4" t="n">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05090811244709403</v>
+        <v>0.04909873098381579</v>
       </c>
       <c r="M4" t="n">
-        <v>7.33224318859969</v>
+        <v>7.314891852243319</v>
       </c>
       <c r="N4" t="n">
-        <v>93.09517880998688</v>
+        <v>92.45328795690601</v>
       </c>
       <c r="O4" t="n">
-        <v>9.648584290453542</v>
+        <v>9.61526328068587</v>
       </c>
       <c r="P4" t="n">
-        <v>316.0617176847348</v>
+        <v>315.9694401864015</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22586,28 +22856,28 @@
         <v>0.0675</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09419955559490803</v>
+        <v>-0.08894295980499921</v>
       </c>
       <c r="J5" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K5" t="n">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005413774339882105</v>
+        <v>0.004958056082281947</v>
       </c>
       <c r="M5" t="n">
-        <v>6.884226811796867</v>
+        <v>6.84252052984525</v>
       </c>
       <c r="N5" t="n">
-        <v>86.01937881377468</v>
+        <v>85.14144514312355</v>
       </c>
       <c r="O5" t="n">
-        <v>9.274663272258174</v>
+        <v>9.227212208631789</v>
       </c>
       <c r="P5" t="n">
-        <v>330.7426210716718</v>
+        <v>330.6911678185944</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22663,28 +22933,28 @@
         <v>0.0728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08340183245661785</v>
+        <v>0.08533201764107982</v>
       </c>
       <c r="J6" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K6" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004847630617125231</v>
+        <v>0.00517179572370241</v>
       </c>
       <c r="M6" t="n">
-        <v>6.675284131240949</v>
+        <v>6.672639153945906</v>
       </c>
       <c r="N6" t="n">
-        <v>75.12506449394277</v>
+        <v>74.90490973638732</v>
       </c>
       <c r="O6" t="n">
-        <v>8.667471632139488</v>
+        <v>8.654762257646787</v>
       </c>
       <c r="P6" t="n">
-        <v>328.9176492974831</v>
+        <v>328.8984329898087</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22740,28 +23010,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2195738008348573</v>
+        <v>0.2222479629123324</v>
       </c>
       <c r="J7" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K7" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02919878847023949</v>
+        <v>0.03038788053714203</v>
       </c>
       <c r="M7" t="n">
-        <v>6.854778302716954</v>
+        <v>6.847361017210164</v>
       </c>
       <c r="N7" t="n">
-        <v>83.6277025901441</v>
+        <v>83.32365235667665</v>
       </c>
       <c r="O7" t="n">
-        <v>9.14481834648147</v>
+        <v>9.128179027422537</v>
       </c>
       <c r="P7" t="n">
-        <v>323.6165504040037</v>
+        <v>323.5899465118085</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22817,28 +23087,28 @@
         <v>0.0718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3352843060676336</v>
+        <v>0.3401651622689097</v>
       </c>
       <c r="J8" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K8" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06865412601052645</v>
+        <v>0.07169332073261925</v>
       </c>
       <c r="M8" t="n">
-        <v>6.813478267608626</v>
+        <v>6.805929123278767</v>
       </c>
       <c r="N8" t="n">
-        <v>77.98098965027081</v>
+        <v>77.67793843878174</v>
       </c>
       <c r="O8" t="n">
-        <v>8.83068455162287</v>
+        <v>8.813508860764919</v>
       </c>
       <c r="P8" t="n">
-        <v>320.7625121287286</v>
+        <v>320.7136225415539</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22894,28 +23164,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3886138271821469</v>
+        <v>0.3886680631283869</v>
       </c>
       <c r="J9" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K9" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08320602018794787</v>
+        <v>0.0845518059767415</v>
       </c>
       <c r="M9" t="n">
-        <v>7.117402808769499</v>
+        <v>7.105869702369423</v>
       </c>
       <c r="N9" t="n">
-        <v>85.15681658537467</v>
+        <v>84.85213288351446</v>
       </c>
       <c r="O9" t="n">
-        <v>9.228045111797767</v>
+        <v>9.211521746351927</v>
       </c>
       <c r="P9" t="n">
-        <v>314.0422414459331</v>
+        <v>314.0414910994418</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22952,7 +23222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J470"/>
+  <dimension ref="A1:J476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46224,6 +46494,306 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-46.38325317924534,168.00940034989287</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-46.383124410470835,168.00853081566078</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-46.38306527957202,168.0077793452779</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-46.38280625533912,168.0070191931994</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-46.38248721522587,168.00623883141822</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-46.3831816976155,168.00940317698544</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-46.38308441763239,168.0085365230898</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-46.382966683539124,168.00784587387375</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-46.38278651647563,168.00704044274897</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-46.3824132537626,168.00630807237803</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-46.38212205679334,168.00550889546534</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-46.38180504678161,168.004704077206</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-46.38155692598574,168.00384968792775</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-46.38330075998181,168.00939846807023</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-46.38313831523794,168.00852883129116</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-46.38305369722203,168.0077871605917</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-46.38284801615357,168.00697423621196</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-46.382529412616336,168.00619932711933</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-46.38217697288548,168.0054591013952</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-46.38191529910583,168.00462840765647</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-46.381661794116845,168.0037984286431</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-46.38329149665901,168.00939883443604</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-46.38318867012037,168.00852164506142</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-46.3831014343112,168.00775494945782</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-46.38283560317477,168.0069875992304</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-46.38257040368863,168.0061609520752</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-46.38224733591963,168.0053953009337</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-46.38193012383457,168.00461823296297</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-46.3817320276647,168.00376409853044</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-46.383371827143776,168.00939565734475</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-46.38318961609358,168.0085215100598</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-46.38310578188103,168.0077520158832</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-46.38288142589855,168.00693826937848</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-46.38258518668476,168.0061471125039</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-46.382285160203296,168.00536100433428</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-46.38197378655535,168.00458826577946</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-46.38173656618102,168.0037618801031</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 22:27:08+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-46.383218516043044,168.00940172082156</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-46.383091338830155,168.0085355353576</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-46.38301424827872,168.0078137791562</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-46.382841986992666,168.00698072682167</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-46.382544514592134,168.00618518895206</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-46.38219404123709,168.00544362498232</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-46.38190363906571,168.00463641031658</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>-46.38165921283513,168.00379969037</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -22476,7 +22476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22567,35 +22567,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22654,27 +22659,28 @@
       <c r="P2" t="n">
         <v>328.8291111300318</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (168.00951691119786 -46.3803056664949, 168.0092059266863 -46.38816815344359)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>168.0095169111979</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.3803056664949</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>168.0092059266863</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.38816815344359</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>168.0093614189421</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.38423690996925</v>
       </c>
     </row>
@@ -22725,27 +22731,28 @@
       <c r="P3" t="n">
         <v>318.7251781005565</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (168.00892990089508 -46.38032777482124, 168.00781278380285 -46.38815516304562)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>168.0089299008951</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.38032777482124</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>168.0078127838028</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.38815516304562</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>168.008371342349</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.38424146893342</v>
       </c>
     </row>
@@ -22802,27 +22809,28 @@
       <c r="P4" t="n">
         <v>315.9694401864015</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (168.00949995507983 -46.38051518301462, 168.00469015907106 -46.38764301836142)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>168.0094999550798</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.38051518301462</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>168.0046901590711</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.38764301836142</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>168.0070950570754</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.38407910068803</v>
       </c>
     </row>
@@ -22879,27 +22887,28 @@
       <c r="P5" t="n">
         <v>330.6911678185944</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (168.0095512992438 -46.38045402861242, 168.00275864401274 -46.38676352437741)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>168.0095512992438</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.38045402861242</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>168.0027586440127</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.38676352437741</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>168.0061549716283</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.38360877649491</v>
       </c>
     </row>
@@ -22956,27 +22965,28 @@
       <c r="P6" t="n">
         <v>328.8984329898087</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (168.00854784546408 -46.38002064618803, 168.00236611646716 -46.38662354547162)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>168.0085478454641</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.38002064618803</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>168.0023661164672</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.38662354547162</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>168.0054569809656</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.38332209582983</v>
       </c>
     </row>
@@ -23033,27 +23043,28 @@
       <c r="P7" t="n">
         <v>323.5899465118085</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (168.00771297335496 -46.37969111853855, 168.0016701953011 -46.38635521185375)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>168.007712973355</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.37969111853855</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>168.0016701953011</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.38635521185375</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>168.004691584328</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.38302316519615</v>
       </c>
     </row>
@@ -23110,27 +23121,28 @@
       <c r="P8" t="n">
         <v>320.7136225415539</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (168.00648066668498 -46.379216361586074, 168.0016034637519 -46.38632227995351)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>168.006480666685</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.37921636158607</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>168.0016034637519</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.38632227995351</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>168.0040420652184</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.3827693207698</v>
       </c>
     </row>
@@ -23187,27 +23199,28 @@
       <c r="P9" t="n">
         <v>314.0414910994418</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (168.00514216441002 -46.3789125762544, 168.00149979500915 -46.38636394519351)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>168.00514216441</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.3789125762544</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>168.0014997950092</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.38636394519351</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>168.0033209797096</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.38263826072395</v>
       </c>
     </row>

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J476"/>
+  <dimension ref="A1:J482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16989,6 +16989,222 @@
         <v>322.7633333333333</v>
       </c>
       <c r="J476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>330.9953846153846</v>
+      </c>
+      <c r="C477" t="n">
+        <v>313.38</v>
+      </c>
+      <c r="D477" t="n">
+        <v>310.9976470588236</v>
+      </c>
+      <c r="E477" t="n">
+        <v>333.6307692307692</v>
+      </c>
+      <c r="F477" t="n">
+        <v>337.9507692307693</v>
+      </c>
+      <c r="G477" t="n">
+        <v>336.8507692307692</v>
+      </c>
+      <c r="H477" t="n">
+        <v>339.0407692307692</v>
+      </c>
+      <c r="I477" t="n">
+        <v>334.3733333333333</v>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>318.4453846153846</v>
+      </c>
+      <c r="C478" t="n">
+        <v>310.2106976744186</v>
+      </c>
+      <c r="D478" t="n">
+        <v>306.8782352941176</v>
+      </c>
+      <c r="E478" t="n">
+        <v>327.5807692307692</v>
+      </c>
+      <c r="F478" t="n">
+        <v>337.4707692307692</v>
+      </c>
+      <c r="G478" t="n">
+        <v>335.2807692307692</v>
+      </c>
+      <c r="H478" t="n">
+        <v>337.6007692307692</v>
+      </c>
+      <c r="I478" t="n">
+        <v>329.4166666666667</v>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>317.8207692307692</v>
+      </c>
+      <c r="C479" t="n">
+        <v>297.9825581395349</v>
+      </c>
+      <c r="D479" t="n">
+        <v>302.5658823529412</v>
+      </c>
+      <c r="E479" t="n">
+        <v>319.5315384615384</v>
+      </c>
+      <c r="F479" t="n">
+        <v>326.8215384615385</v>
+      </c>
+      <c r="G479" t="n">
+        <v>324.9015384615385</v>
+      </c>
+      <c r="H479" t="n">
+        <v>324.3215384615385</v>
+      </c>
+      <c r="I479" t="n">
+        <v>324.4966666666667</v>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:26:41+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>319.6615384615384</v>
+      </c>
+      <c r="C480" t="n">
+        <v>306.3418604651163</v>
+      </c>
+      <c r="D480" t="n">
+        <v>312.6005882352941</v>
+      </c>
+      <c r="E480" t="n">
+        <v>334.4930769230769</v>
+      </c>
+      <c r="F480" t="n">
+        <v>337.5930769230769</v>
+      </c>
+      <c r="G480" t="n">
+        <v>328.9030769230769</v>
+      </c>
+      <c r="H480" t="n">
+        <v>333.8630769230769</v>
+      </c>
+      <c r="I480" t="n">
+        <v>330.07</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>323.7561538461539</v>
+      </c>
+      <c r="C481" t="n">
+        <v>303.6967441860465</v>
+      </c>
+      <c r="D481" t="n">
+        <v>303.9970588235294</v>
+      </c>
+      <c r="E481" t="n">
+        <v>329.9023076923077</v>
+      </c>
+      <c r="F481" t="n">
+        <v>336.9623076923077</v>
+      </c>
+      <c r="G481" t="n">
+        <v>334.6823076923077</v>
+      </c>
+      <c r="H481" t="n">
+        <v>336.1423076923077</v>
+      </c>
+      <c r="I481" t="n">
+        <v>329.21</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>319.1146153846154</v>
+      </c>
+      <c r="C482" t="n">
+        <v>304.6958139534884</v>
+      </c>
+      <c r="D482" t="n">
+        <v>303.8088235294118</v>
+      </c>
+      <c r="E482" t="n">
+        <v>325.1792307692308</v>
+      </c>
+      <c r="F482" t="n">
+        <v>335.1392307692308</v>
+      </c>
+      <c r="G482" t="n">
+        <v>333.5992307692308</v>
+      </c>
+      <c r="H482" t="n">
+        <v>334.6892307692308</v>
+      </c>
+      <c r="I482" t="n">
+        <v>328.2266666666667</v>
+      </c>
+      <c r="J482" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17005,7 +17221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B545"/>
+  <dimension ref="A1:B551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22463,6 +22679,66 @@
       </c>
       <c r="B545" t="n">
         <v>-0.25</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -22636,28 +22912,28 @@
         <v>0.1563</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0911257624609806</v>
+        <v>-0.1045158220821838</v>
       </c>
       <c r="J2" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K2" t="n">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004121192322684597</v>
+        <v>0.0055523616357539</v>
       </c>
       <c r="M2" t="n">
-        <v>7.919424189460503</v>
+        <v>7.898890181342798</v>
       </c>
       <c r="N2" t="n">
-        <v>106.5229270754586</v>
+        <v>105.6636782824132</v>
       </c>
       <c r="O2" t="n">
-        <v>10.32099448093344</v>
+        <v>10.27928393821346</v>
       </c>
       <c r="P2" t="n">
-        <v>328.8291111300318</v>
+        <v>328.9618496036662</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22708,28 +22984,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2839658995780962</v>
+        <v>-0.299140168775886</v>
       </c>
       <c r="J3" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K3" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04141868977620922</v>
+        <v>0.04681195270700322</v>
       </c>
       <c r="M3" t="n">
-        <v>7.593978193823065</v>
+        <v>7.570504050661277</v>
       </c>
       <c r="N3" t="n">
-        <v>97.57324866724699</v>
+        <v>96.926198381624</v>
       </c>
       <c r="O3" t="n">
-        <v>9.877917223142083</v>
+        <v>9.845110379351976</v>
       </c>
       <c r="P3" t="n">
-        <v>318.7251781005565</v>
+        <v>318.8779693027313</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22786,28 +23062,28 @@
         <v>0.0997</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3000577364084669</v>
+        <v>-0.3039778786860773</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K4" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04909873098381579</v>
+        <v>0.05168065311050507</v>
       </c>
       <c r="M4" t="n">
-        <v>7.314891852243319</v>
+        <v>7.266632234635877</v>
       </c>
       <c r="N4" t="n">
-        <v>92.45328795690601</v>
+        <v>91.41436388672122</v>
       </c>
       <c r="O4" t="n">
-        <v>9.61526328068587</v>
+        <v>9.561085915664664</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9694401864015</v>
+        <v>316.0085679083388</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22864,28 +23140,28 @@
         <v>0.0675</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08894295980499921</v>
+        <v>-0.08898079813279668</v>
       </c>
       <c r="J5" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K5" t="n">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004958056082281947</v>
+        <v>0.005090661198661417</v>
       </c>
       <c r="M5" t="n">
-        <v>6.84252052984525</v>
+        <v>6.808348551434422</v>
       </c>
       <c r="N5" t="n">
-        <v>85.14144514312355</v>
+        <v>84.35031976582107</v>
       </c>
       <c r="O5" t="n">
-        <v>9.227212208631789</v>
+        <v>9.184243015394413</v>
       </c>
       <c r="P5" t="n">
-        <v>330.6911678185944</v>
+        <v>330.6915567773102</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22942,28 +23218,28 @@
         <v>0.0728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08533201764107982</v>
+        <v>0.09661896431151019</v>
       </c>
       <c r="J6" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K6" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00517179572370241</v>
+        <v>0.006781219192853571</v>
       </c>
       <c r="M6" t="n">
-        <v>6.672639153945906</v>
+        <v>6.65310218560653</v>
       </c>
       <c r="N6" t="n">
-        <v>74.90490973638732</v>
+        <v>74.33787719520075</v>
       </c>
       <c r="O6" t="n">
-        <v>8.654762257646787</v>
+        <v>8.621941613998597</v>
       </c>
       <c r="P6" t="n">
-        <v>328.8984329898087</v>
+        <v>328.7868769166819</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23020,28 +23296,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2222479629123324</v>
+        <v>0.2303741508077471</v>
       </c>
       <c r="J7" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K7" t="n">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03038788053714203</v>
+        <v>0.03338417099302293</v>
       </c>
       <c r="M7" t="n">
-        <v>6.847361017210164</v>
+        <v>6.817847998903551</v>
       </c>
       <c r="N7" t="n">
-        <v>83.32365235667665</v>
+        <v>82.56453937989608</v>
       </c>
       <c r="O7" t="n">
-        <v>9.128179027422537</v>
+        <v>9.08650314366842</v>
       </c>
       <c r="P7" t="n">
-        <v>323.5899465118085</v>
+        <v>323.508673447151</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23098,28 +23374,28 @@
         <v>0.0718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3401651622689097</v>
+        <v>0.3532237100335334</v>
       </c>
       <c r="J8" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K8" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07169332073261925</v>
+        <v>0.07847638688282743</v>
       </c>
       <c r="M8" t="n">
-        <v>6.805929123278767</v>
+        <v>6.798471018845599</v>
       </c>
       <c r="N8" t="n">
-        <v>77.67793843878174</v>
+        <v>77.23990914377818</v>
       </c>
       <c r="O8" t="n">
-        <v>8.813508860764919</v>
+        <v>8.788623848121967</v>
       </c>
       <c r="P8" t="n">
-        <v>320.7136225415539</v>
+        <v>320.581696542581</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23176,28 +23452,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3886680631283869</v>
+        <v>0.4030551496134285</v>
       </c>
       <c r="J9" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K9" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0845518059767415</v>
+        <v>0.09239406488600388</v>
       </c>
       <c r="M9" t="n">
-        <v>7.105869702369423</v>
+        <v>7.082046449273681</v>
       </c>
       <c r="N9" t="n">
-        <v>84.85213288351446</v>
+        <v>84.17363108471078</v>
       </c>
       <c r="O9" t="n">
-        <v>9.211521746351927</v>
+        <v>9.174618852285406</v>
       </c>
       <c r="P9" t="n">
-        <v>314.0414910994418</v>
+        <v>313.8956190275988</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23235,7 +23511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J476"/>
+  <dimension ref="A1:J482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46807,6 +47083,318 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-46.383278040318345,168.00939936663593</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-46.38312938358731,168.00853010594022</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-46.38304663481317,168.00779192602528</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-46.38285752538072,168.00696399918115</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-46.382568617433975,168.0061626243336</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-46.382254359928666,168.00538893202386</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-46.38196755704984,168.00459254130064</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-46.381758010669856,168.0037513980285</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-46.38316534001009,168.00940382392525</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-46.383101050129234,168.00853414944626</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-46.383013103928874,168.0078145513169</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-46.38281394141413,168.00701091887586</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-46.3825649985283,168.0061660122853</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-46.38224241325969,168.00539976447703</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-46.38195587204497,168.00460056111316</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>-46.381715830834054,168.00377201553982</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-46.38315973089876,168.00940404576423</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-46.38299173096216,168.00854975048097</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-46.382978002550075,168.00783823627967</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-46.38275595503136,168.0070733431297</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-46.38248470982779,168.00624117691612</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-46.3821634340986,168.00547137743163</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-46.38184811654162,168.00467451715284</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-46.38167396301612,168.00379248050035</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:26:41+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-46.3831762611985,168.00940339199468</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-46.38306646285189,168.0085390854359</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-46.383059682314084,168.0077831220877</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-46.38286373741023,168.0069573117016</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-46.38256592065331,168.0061651490092</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-46.38219388319681,168.00544376828248</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-46.38192554221327,168.0046213774794</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-46.381721390516816,168.00376929796798</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-46.38321303127167,168.00940193774377</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-46.38304281559906,168.00854246015754</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-46.38298965193756,168.00783037575744</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-46.38283066569031,168.00699291460788</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-46.38256116503998,168.00616960112467</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-46.382237859360075,168.00540389365193</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-46.38194403723161,168.00460868374012</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-46.38171407215888,168.00377287517975</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-46.38317134977221,168.00940358624055</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-46.38305174725007,168.00854118551368</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-46.38298811975347,168.00783140961178</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-46.38279664081746,168.00702954355748</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-46.38254742015636,168.00618246881987</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-46.38222961785492,168.00541136650133</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-46.381932246111454,168.0046167763748</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-46.3817057042688,168.00377696540124</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J482"/>
+  <dimension ref="A1:J484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17207,6 +17207,78 @@
       <c r="J482" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:34+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>314.2038461538461</v>
+      </c>
+      <c r="C483" t="n">
+        <v>298.6332558139535</v>
+      </c>
+      <c r="D483" t="n">
+        <v>298.8529411764706</v>
+      </c>
+      <c r="E483" t="n">
+        <v>320.8976923076923</v>
+      </c>
+      <c r="F483" t="n">
+        <v>327.5476923076924</v>
+      </c>
+      <c r="G483" t="n">
+        <v>325.3376923076923</v>
+      </c>
+      <c r="H483" t="n">
+        <v>329.1576923076923</v>
+      </c>
+      <c r="I483" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>319.7530769230769</v>
+      </c>
+      <c r="C484" t="n">
+        <v>301.3997674418604</v>
+      </c>
+      <c r="D484" t="n">
+        <v>293.9147058823529</v>
+      </c>
+      <c r="E484" t="n">
+        <v>323.0561538461538</v>
+      </c>
+      <c r="F484" t="n">
+        <v>323.9061538461539</v>
+      </c>
+      <c r="G484" t="n">
+        <v>323.2061538461539</v>
+      </c>
+      <c r="H484" t="n">
+        <v>319.2961538461539</v>
+      </c>
+      <c r="I484" t="n">
+        <v>314.5066666666667</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B551"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22739,6 +22811,26 @@
       </c>
       <c r="B551" t="n">
         <v>-0.08</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -22912,28 +23004,28 @@
         <v>0.1563</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1045158220821838</v>
+        <v>-0.1129789164523767</v>
       </c>
       <c r="J2" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K2" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0055523616357539</v>
+        <v>0.006521086714157742</v>
       </c>
       <c r="M2" t="n">
-        <v>7.898890181342798</v>
+        <v>7.905581071036358</v>
       </c>
       <c r="N2" t="n">
-        <v>105.6636782824132</v>
+        <v>105.6046188897677</v>
       </c>
       <c r="O2" t="n">
-        <v>10.27928393821346</v>
+        <v>10.27641079802514</v>
       </c>
       <c r="P2" t="n">
-        <v>328.9618496036662</v>
+        <v>329.0459500358803</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22984,28 +23076,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.299140168775886</v>
+        <v>-0.309546618751763</v>
       </c>
       <c r="J3" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K3" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04681195270700322</v>
+        <v>0.05016074164034956</v>
       </c>
       <c r="M3" t="n">
-        <v>7.570504050661277</v>
+        <v>7.586862903445866</v>
       </c>
       <c r="N3" t="n">
-        <v>96.926198381624</v>
+        <v>97.05215063131683</v>
       </c>
       <c r="O3" t="n">
-        <v>9.845110379351976</v>
+        <v>9.851504993213821</v>
       </c>
       <c r="P3" t="n">
-        <v>318.8779693027313</v>
+        <v>318.9829895513146</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23062,28 +23154,28 @@
         <v>0.0997</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3039778786860773</v>
+        <v>-0.3146213928506099</v>
       </c>
       <c r="J4" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K4" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05168065311050507</v>
+        <v>0.05530665742526875</v>
       </c>
       <c r="M4" t="n">
-        <v>7.266632234635877</v>
+        <v>7.286263192235699</v>
       </c>
       <c r="N4" t="n">
-        <v>91.41436388672122</v>
+        <v>91.64637036673534</v>
       </c>
       <c r="O4" t="n">
-        <v>9.561085915664664</v>
+        <v>9.573211079190479</v>
       </c>
       <c r="P4" t="n">
-        <v>316.0085679083388</v>
+        <v>316.1149916272605</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23140,28 +23232,28 @@
         <v>0.0675</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08898079813279668</v>
+        <v>-0.09464087587996219</v>
       </c>
       <c r="J5" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K5" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005090661198661417</v>
+        <v>0.005798008894782325</v>
       </c>
       <c r="M5" t="n">
-        <v>6.808348551434422</v>
+        <v>6.809747588492541</v>
       </c>
       <c r="N5" t="n">
-        <v>84.35031976582107</v>
+        <v>84.16100913599443</v>
       </c>
       <c r="O5" t="n">
-        <v>9.184243015394413</v>
+        <v>9.173930953304284</v>
       </c>
       <c r="P5" t="n">
-        <v>330.6915567773102</v>
+        <v>330.7476772476483</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23218,28 +23310,28 @@
         <v>0.0728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09661896431151019</v>
+        <v>0.09171141304556285</v>
       </c>
       <c r="J6" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K6" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006781219192853571</v>
+        <v>0.006160947806200023</v>
       </c>
       <c r="M6" t="n">
-        <v>6.65310218560653</v>
+        <v>6.650291173251776</v>
       </c>
       <c r="N6" t="n">
-        <v>74.33787719520075</v>
+        <v>74.1582921348615</v>
       </c>
       <c r="O6" t="n">
-        <v>8.621941613998597</v>
+        <v>8.611520895571322</v>
       </c>
       <c r="P6" t="n">
-        <v>328.7868769166819</v>
+        <v>328.8355341531642</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23296,28 +23388,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2303741508077471</v>
+        <v>0.2258052016319118</v>
       </c>
       <c r="J7" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K7" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03338417099302293</v>
+        <v>0.03236830552974379</v>
       </c>
       <c r="M7" t="n">
-        <v>6.817847998903551</v>
+        <v>6.810611688022939</v>
       </c>
       <c r="N7" t="n">
-        <v>82.56453937989608</v>
+        <v>82.32275230732333</v>
       </c>
       <c r="O7" t="n">
-        <v>9.08650314366842</v>
+        <v>9.073188651588994</v>
       </c>
       <c r="P7" t="n">
-        <v>323.508673447151</v>
+        <v>323.5545198469077</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23374,28 +23466,28 @@
         <v>0.0718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3532237100335334</v>
+        <v>0.3482872256705611</v>
       </c>
       <c r="J8" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K8" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07847638688282743</v>
+        <v>0.07693907707685177</v>
       </c>
       <c r="M8" t="n">
-        <v>6.798471018845599</v>
+        <v>6.793632231944761</v>
       </c>
       <c r="N8" t="n">
-        <v>77.23990914377818</v>
+        <v>77.13684142014633</v>
       </c>
       <c r="O8" t="n">
-        <v>8.788623848121967</v>
+        <v>8.782758189779925</v>
       </c>
       <c r="P8" t="n">
-        <v>320.581696542581</v>
+        <v>320.6317421069351</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23452,28 +23544,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4030551496134285</v>
+        <v>0.3956074730042046</v>
       </c>
       <c r="J9" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K9" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09239406488600388</v>
+        <v>0.08981247295373262</v>
       </c>
       <c r="M9" t="n">
-        <v>7.082046449273681</v>
+        <v>7.085827975120976</v>
       </c>
       <c r="N9" t="n">
-        <v>84.17363108471078</v>
+        <v>84.10502938614584</v>
       </c>
       <c r="O9" t="n">
-        <v>9.174618852285406</v>
+        <v>9.170879422724184</v>
       </c>
       <c r="P9" t="n">
-        <v>313.8956190275988</v>
+        <v>313.9713768924187</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23511,7 +23603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J482"/>
+  <dimension ref="A1:J484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47395,6 +47487,110 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:34+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-46.38312725055203,168.00940533035214</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-46.3829975481782,168.008548920303</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-46.38294778021482,168.00785862903615</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-46.38276579675967,168.00706274819703</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-46.38249018458648,168.00623605156852</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-46.38216675294534,168.00546836813143</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-46.3818873599507,168.0046475831894</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-46.3816161252836,168.00382075148445</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-46.38317708322344,168.00940335948377</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-46.38302228070202,168.00854539070886</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-46.38290758431022,168.0078857514948</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-46.38278134624476,168.00704600867277</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-46.382462729596824,168.00626175430727</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-46.38215053332486,168.00548307495472</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-46.38180733759372,168.0047025049551</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-46.38158895090666,168.00383403424928</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28897,7 +28897,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-46.383230166387804,168.00766808571848</t>
+          <t>-46.3832301663878,168.00766808571848</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -29199,7 +29199,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-46.383326698667105,168.00939744218996</t>
+          <t>-46.3833266986671,168.00939744218996</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>-46.381594737517375,168.00383120577027</t>
+          <t>-46.38159473751738,168.00383120577027</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -31207,7 +31207,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>-46.38260180812878,168.00613155179977</t>
+          <t>-46.382601808128776,168.00613155179977</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -31429,7 +31429,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-46.38299273066993,168.0078282983562</t>
+          <t>-46.38299273066994,168.0078282983562</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -45197,7 +45197,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>-46.38297834729151,168.00783800366256</t>
+          <t>-46.382978347291505,168.00783800366256</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J484"/>
+  <dimension ref="A1:J486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17277,6 +17277,78 @@
         <v>314.5066666666667</v>
       </c>
       <c r="J484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>332.8107692307692</v>
+      </c>
+      <c r="C485" t="n">
+        <v>317.1918604651163</v>
+      </c>
+      <c r="D485" t="n">
+        <v>307.885294117647</v>
+      </c>
+      <c r="E485" t="n">
+        <v>326.5415384615384</v>
+      </c>
+      <c r="F485" t="n">
+        <v>322.3815384615385</v>
+      </c>
+      <c r="G485" t="n">
+        <v>324.1415384615385</v>
+      </c>
+      <c r="H485" t="n">
+        <v>327.7715384615385</v>
+      </c>
+      <c r="I485" t="n">
+        <v>343.0333333333333</v>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>318.4930769230769</v>
+      </c>
+      <c r="C486" t="n">
+        <v>308.4841860465116</v>
+      </c>
+      <c r="D486" t="n">
+        <v>305.07</v>
+      </c>
+      <c r="E486" t="n">
+        <v>329.4461538461539</v>
+      </c>
+      <c r="F486" t="n">
+        <v>334.7061538461539</v>
+      </c>
+      <c r="G486" t="n">
+        <v>332.8361538461539</v>
+      </c>
+      <c r="H486" t="n">
+        <v>332.0961538461539</v>
+      </c>
+      <c r="I486" t="n">
+        <v>327.77</v>
+      </c>
+      <c r="J486" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -17293,7 +17365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22831,6 +22903,26 @@
       </c>
       <c r="B553" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -23004,28 +23096,28 @@
         <v>0.1563</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1129789164523767</v>
+        <v>-0.1134063927312716</v>
       </c>
       <c r="J2" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K2" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006521086714157742</v>
+        <v>0.006621423908547586</v>
       </c>
       <c r="M2" t="n">
-        <v>7.905581071036358</v>
+        <v>7.90222318203526</v>
       </c>
       <c r="N2" t="n">
-        <v>105.6046188897677</v>
+        <v>105.3601155207544</v>
       </c>
       <c r="O2" t="n">
-        <v>10.27641079802514</v>
+        <v>10.26450756348079</v>
       </c>
       <c r="P2" t="n">
-        <v>329.0459500358803</v>
+        <v>329.0502440805315</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23076,28 +23168,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.309546618751763</v>
+        <v>-0.3078055555927979</v>
       </c>
       <c r="J3" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K3" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05016074164034956</v>
+        <v>0.05005547577626002</v>
       </c>
       <c r="M3" t="n">
-        <v>7.586862903445866</v>
+        <v>7.571883473345815</v>
       </c>
       <c r="N3" t="n">
-        <v>97.05215063131683</v>
+        <v>96.70737337160767</v>
       </c>
       <c r="O3" t="n">
-        <v>9.851504993213821</v>
+        <v>9.833990714435705</v>
       </c>
       <c r="P3" t="n">
-        <v>318.9829895513146</v>
+        <v>318.9653649406441</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23154,28 +23246,28 @@
         <v>0.0997</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3146213928506099</v>
+        <v>-0.3159539875985615</v>
       </c>
       <c r="J4" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K4" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05530665742526875</v>
+        <v>0.05626021694706296</v>
       </c>
       <c r="M4" t="n">
-        <v>7.286263192235699</v>
+        <v>7.259975004452296</v>
       </c>
       <c r="N4" t="n">
-        <v>91.64637036673534</v>
+        <v>91.25219048546677</v>
       </c>
       <c r="O4" t="n">
-        <v>9.573211079190479</v>
+        <v>9.552601241832864</v>
       </c>
       <c r="P4" t="n">
-        <v>316.1149916272605</v>
+        <v>316.128374683005</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23232,28 +23324,28 @@
         <v>0.0675</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09464087587996219</v>
+        <v>-0.09490347924755023</v>
       </c>
       <c r="J5" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K5" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005798008894782325</v>
+        <v>0.005885653376804689</v>
       </c>
       <c r="M5" t="n">
-        <v>6.809747588492541</v>
+        <v>6.786190941014099</v>
       </c>
       <c r="N5" t="n">
-        <v>84.16100913599443</v>
+        <v>83.79835415800703</v>
       </c>
       <c r="O5" t="n">
-        <v>9.173930953304284</v>
+        <v>9.154144097511631</v>
       </c>
       <c r="P5" t="n">
-        <v>330.7476772476483</v>
+        <v>330.7502863102981</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23310,28 +23402,28 @@
         <v>0.0728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09171141304556285</v>
+        <v>0.08937349105222797</v>
       </c>
       <c r="J6" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K6" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006160947806200023</v>
+        <v>0.005893634013927507</v>
       </c>
       <c r="M6" t="n">
-        <v>6.650291173251776</v>
+        <v>6.6492127066662</v>
       </c>
       <c r="N6" t="n">
-        <v>74.1582921348615</v>
+        <v>74.02978289740165</v>
       </c>
       <c r="O6" t="n">
-        <v>8.611520895571322</v>
+        <v>8.604056188647402</v>
       </c>
       <c r="P6" t="n">
-        <v>328.8355341531642</v>
+        <v>328.8587812902031</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23388,28 +23480,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2258052016319118</v>
+        <v>0.225004273185383</v>
       </c>
       <c r="J7" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K7" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03236830552974379</v>
+        <v>0.03241262033894077</v>
       </c>
       <c r="M7" t="n">
-        <v>6.810611688022939</v>
+        <v>6.799793899514906</v>
       </c>
       <c r="N7" t="n">
-        <v>82.32275230732333</v>
+        <v>82.0481464099757</v>
       </c>
       <c r="O7" t="n">
-        <v>9.073188651588994</v>
+        <v>9.058043188789492</v>
       </c>
       <c r="P7" t="n">
-        <v>323.5545198469077</v>
+        <v>323.562571705177</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23466,28 +23558,28 @@
         <v>0.0718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3482872256705611</v>
+        <v>0.3485343648409575</v>
       </c>
       <c r="J8" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K8" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07693907707685177</v>
+        <v>0.07771836985391667</v>
       </c>
       <c r="M8" t="n">
-        <v>6.793632231944761</v>
+        <v>6.773166095362217</v>
       </c>
       <c r="N8" t="n">
-        <v>77.13684142014633</v>
+        <v>76.81789197290034</v>
       </c>
       <c r="O8" t="n">
-        <v>8.782758189779925</v>
+        <v>8.764581677005488</v>
       </c>
       <c r="P8" t="n">
-        <v>320.6317421069351</v>
+        <v>320.6292193826047</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23544,28 +23636,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3956074730042046</v>
+        <v>0.405684416912187</v>
       </c>
       <c r="J9" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K9" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08981247295373262</v>
+        <v>0.0940225738988022</v>
       </c>
       <c r="M9" t="n">
-        <v>7.085827975120976</v>
+        <v>7.105143575899721</v>
       </c>
       <c r="N9" t="n">
-        <v>84.10502938614584</v>
+        <v>84.54049848733789</v>
       </c>
       <c r="O9" t="n">
-        <v>9.170879422724184</v>
+        <v>9.194590718859533</v>
       </c>
       <c r="P9" t="n">
-        <v>313.9713768924187</v>
+        <v>313.868503312155</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23603,7 +23695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J484"/>
+  <dimension ref="A1:J486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47591,6 +47683,110 @@
         </is>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-46.38329434266125,168.00939872187627</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-46.38316346149339,168.00852524262902</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-46.38302130111259,168.0078090201902</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-46.3828064548335,168.0070189784369</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-46.382451234920204,168.0062725153531</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-46.382157650993314,168.00547662114957</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-46.3818761118804,168.0046553030921</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-46.38183170481574,168.00371537622848</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-46.383165768291995,168.0094038069868</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-46.38308561517217,168.00853635218752</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-46.38299838538668,168.00782448278656</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-46.382827379575346,168.0069964522267</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-46.3825441550213,168.00618552557518</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-46.38222381133956,168.005416631462</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-46.38191120435949,168.0046312180129</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-46.381701818163855,168.00377886492737</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J486"/>
+  <dimension ref="A1:J488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17351,6 +17351,78 @@
       <c r="J486" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>318.1592307692308</v>
+      </c>
+      <c r="C487" t="n">
+        <v>310.1167441860465</v>
+      </c>
+      <c r="D487" t="n">
+        <v>313.3335294117647</v>
+      </c>
+      <c r="E487" t="n">
+        <v>338.8884615384616</v>
+      </c>
+      <c r="F487" t="n">
+        <v>345.3184615384615</v>
+      </c>
+      <c r="G487" t="n">
+        <v>346.3084615384616</v>
+      </c>
+      <c r="H487" t="n">
+        <v>340.5084615384616</v>
+      </c>
+      <c r="I487" t="n">
+        <v>334.68</v>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>324.9561538461539</v>
+      </c>
+      <c r="C488" t="n">
+        <v>312.1897674418605</v>
+      </c>
+      <c r="D488" t="n">
+        <v>311.1211764705882</v>
+      </c>
+      <c r="E488" t="n">
+        <v>334.2123076923077</v>
+      </c>
+      <c r="F488" t="n">
+        <v>340.8423076923077</v>
+      </c>
+      <c r="G488" t="n">
+        <v>337.1223076923077</v>
+      </c>
+      <c r="H488" t="n">
+        <v>340.2523076923077</v>
+      </c>
+      <c r="I488" t="n">
+        <v>332.5466666666667</v>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17365,7 +17437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22923,6 +22995,26 @@
       </c>
       <c r="B555" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -23096,28 +23188,28 @@
         <v>0.1563</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1134063927312716</v>
+        <v>-0.1174871999864994</v>
       </c>
       <c r="J2" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K2" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006621423908547586</v>
+        <v>0.007164056587290024</v>
       </c>
       <c r="M2" t="n">
-        <v>7.90222318203526</v>
+        <v>7.88701901586879</v>
       </c>
       <c r="N2" t="n">
-        <v>105.3601155207544</v>
+        <v>105.0300448905661</v>
       </c>
       <c r="O2" t="n">
-        <v>10.26450756348079</v>
+        <v>10.24841670164548</v>
       </c>
       <c r="P2" t="n">
-        <v>329.0502440805315</v>
+        <v>329.0910797649105</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23168,28 +23260,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.3078055555927979</v>
+        <v>-0.307628105932085</v>
       </c>
       <c r="J3" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K3" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05005547577626002</v>
+        <v>0.05047954467880178</v>
       </c>
       <c r="M3" t="n">
-        <v>7.571883473345815</v>
+        <v>7.541869162976251</v>
       </c>
       <c r="N3" t="n">
-        <v>96.70737337160767</v>
+        <v>96.26791003710599</v>
       </c>
       <c r="O3" t="n">
-        <v>9.833990714435705</v>
+        <v>9.811621172727063</v>
       </c>
       <c r="P3" t="n">
-        <v>318.9653649406441</v>
+        <v>318.9635508070666</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23246,28 +23338,28 @@
         <v>0.0997</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3159539875985615</v>
+        <v>-0.3121087405874696</v>
       </c>
       <c r="J4" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K4" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05626021694706296</v>
+        <v>0.05543536183623898</v>
       </c>
       <c r="M4" t="n">
-        <v>7.259975004452296</v>
+        <v>7.246900360841349</v>
       </c>
       <c r="N4" t="n">
-        <v>91.25219048546677</v>
+        <v>90.93065276957427</v>
       </c>
       <c r="O4" t="n">
-        <v>9.552601241832864</v>
+        <v>9.535756538920982</v>
       </c>
       <c r="P4" t="n">
-        <v>316.128374683005</v>
+        <v>316.0896459821763</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23324,28 +23416,28 @@
         <v>0.0675</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09490347924755023</v>
+        <v>-0.08770634476237701</v>
       </c>
       <c r="J5" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K5" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005885653376804689</v>
+        <v>0.00506017336015141</v>
       </c>
       <c r="M5" t="n">
-        <v>6.786190941014099</v>
+        <v>6.788281201012992</v>
       </c>
       <c r="N5" t="n">
-        <v>83.79835415800703</v>
+        <v>83.75014807914737</v>
       </c>
       <c r="O5" t="n">
-        <v>9.154144097511631</v>
+        <v>9.151510699286067</v>
       </c>
       <c r="P5" t="n">
-        <v>330.7502863102981</v>
+        <v>330.678388383272</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23402,28 +23494,28 @@
         <v>0.0728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08937349105222797</v>
+        <v>0.09974084569532544</v>
       </c>
       <c r="J6" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K6" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005893634013927507</v>
+        <v>0.007337594766821276</v>
       </c>
       <c r="M6" t="n">
-        <v>6.6492127066662</v>
+        <v>6.667288162012989</v>
       </c>
       <c r="N6" t="n">
-        <v>74.02978289740165</v>
+        <v>74.33932774353548</v>
       </c>
       <c r="O6" t="n">
-        <v>8.604056188647402</v>
+        <v>8.622025733175208</v>
       </c>
       <c r="P6" t="n">
-        <v>328.8587812902031</v>
+        <v>328.7552395010981</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23480,28 +23572,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>0.225004273185383</v>
+        <v>0.2356949936225654</v>
       </c>
       <c r="J7" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K7" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03241262033894077</v>
+        <v>0.03547008428132359</v>
       </c>
       <c r="M7" t="n">
-        <v>6.799793899514906</v>
+        <v>6.823318399701452</v>
       </c>
       <c r="N7" t="n">
-        <v>82.0481464099757</v>
+        <v>82.43403433687318</v>
       </c>
       <c r="O7" t="n">
-        <v>9.058043188789492</v>
+        <v>9.079319045879663</v>
       </c>
       <c r="P7" t="n">
-        <v>323.562571705177</v>
+        <v>323.4545288785803</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23558,28 +23650,28 @@
         <v>0.0718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3485343648409575</v>
+        <v>0.3580328893610252</v>
       </c>
       <c r="J8" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K8" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07771836985391667</v>
+        <v>0.08190882120177245</v>
       </c>
       <c r="M8" t="n">
-        <v>6.773166095362217</v>
+        <v>6.788189447591003</v>
       </c>
       <c r="N8" t="n">
-        <v>76.81789197290034</v>
+        <v>76.97520789244194</v>
       </c>
       <c r="O8" t="n">
-        <v>8.764581677005488</v>
+        <v>8.773551612228763</v>
       </c>
       <c r="P8" t="n">
-        <v>320.6292193826047</v>
+        <v>320.5322513351668</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23636,28 +23728,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.405684416912187</v>
+        <v>0.413922955303025</v>
       </c>
       <c r="J9" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K9" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0940225738988022</v>
+        <v>0.09796987600046592</v>
       </c>
       <c r="M9" t="n">
-        <v>7.105143575899721</v>
+        <v>7.115255234792649</v>
       </c>
       <c r="N9" t="n">
-        <v>84.54049848733789</v>
+        <v>84.54058115223302</v>
       </c>
       <c r="O9" t="n">
-        <v>9.194590718859533</v>
+        <v>9.194595214158861</v>
       </c>
       <c r="P9" t="n">
-        <v>313.868503312155</v>
+        <v>313.7840880665312</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23695,7 +23787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J486"/>
+  <dimension ref="A1:J488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47787,6 +47879,110 @@
         </is>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-46.38316277031869,168.00940392555592</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-46.38310021018815,168.0085342693153</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-46.38306564825367,168.00777909650597</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-46.382895401574984,168.00692322402534</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-46.38262416530088,168.00611062138864</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-46.38232632673013,168.00532367713794</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-46.381979466765614,168.00458436725728</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-46.38176062031656,168.0037501224315</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-46.38322380739678,168.0094015115489</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-46.38311874294761,168.00853162448092</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-46.38304764030869,168.00779124755684</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-46.38286171476016,168.00695948915944</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-46.382590417858275,168.0061422151724</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-46.38225642615791,168.00538705850255</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-46.38197738818321,168.00458579385943</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>-46.38174246625216,168.00375899614693</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J488"/>
+  <dimension ref="A1:J491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17423,6 +17423,114 @@
       <c r="J488" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:41+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>320.2423076923077</v>
+      </c>
+      <c r="C489" t="n">
+        <v>299.65</v>
+      </c>
+      <c r="D489" t="n">
+        <v>295.3211764705882</v>
+      </c>
+      <c r="E489" t="n">
+        <v>319.3746153846154</v>
+      </c>
+      <c r="F489" t="n">
+        <v>323.9546153846153</v>
+      </c>
+      <c r="G489" t="n">
+        <v>326.1146153846154</v>
+      </c>
+      <c r="H489" t="n">
+        <v>330.3446153846153</v>
+      </c>
+      <c r="I489" t="n">
+        <v>320.0833333333333</v>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>320.28</v>
+      </c>
+      <c r="C490" t="n">
+        <v>305.7772093023256</v>
+      </c>
+      <c r="D490" t="n">
+        <v>302.9176470588235</v>
+      </c>
+      <c r="E490" t="n">
+        <v>321.99</v>
+      </c>
+      <c r="F490" t="n">
+        <v>327.96</v>
+      </c>
+      <c r="G490" t="n">
+        <v>327.44</v>
+      </c>
+      <c r="H490" t="n">
+        <v>326.84</v>
+      </c>
+      <c r="I490" t="n">
+        <v>322.3966666666667</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>326.6192307692308</v>
+      </c>
+      <c r="C491" t="n">
+        <v>306.9595348837209</v>
+      </c>
+      <c r="D491" t="n">
+        <v>304.0458823529411</v>
+      </c>
+      <c r="E491" t="n">
+        <v>331.2884615384615</v>
+      </c>
+      <c r="F491" t="n">
+        <v>340.4284615384615</v>
+      </c>
+      <c r="G491" t="n">
+        <v>339.1984615384616</v>
+      </c>
+      <c r="H491" t="n">
+        <v>339.7084615384616</v>
+      </c>
+      <c r="I491" t="n">
+        <v>331.8633333333333</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17437,7 +17545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23015,6 +23123,36 @@
       </c>
       <c r="B557" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -23188,28 +23326,28 @@
         <v>0.1563</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1174871999864994</v>
+        <v>-0.1223259391687414</v>
       </c>
       <c r="J2" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K2" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007164056587290024</v>
+        <v>0.007865479346165105</v>
       </c>
       <c r="M2" t="n">
-        <v>7.88701901586879</v>
+        <v>7.861264044377042</v>
       </c>
       <c r="N2" t="n">
-        <v>105.0300448905661</v>
+        <v>104.4741954979095</v>
       </c>
       <c r="O2" t="n">
-        <v>10.24841670164548</v>
+        <v>10.22126193275124</v>
       </c>
       <c r="P2" t="n">
-        <v>329.0910797649105</v>
+        <v>329.1396487222164</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23260,28 +23398,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.307628105932085</v>
+        <v>-0.3168984004591895</v>
       </c>
       <c r="J3" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K3" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05047954467880178</v>
+        <v>0.05396099478193506</v>
       </c>
       <c r="M3" t="n">
-        <v>7.541869162976251</v>
+        <v>7.536053994016277</v>
       </c>
       <c r="N3" t="n">
-        <v>96.26791003710599</v>
+        <v>95.99034398743066</v>
       </c>
       <c r="O3" t="n">
-        <v>9.811621172727063</v>
+        <v>9.797466202413288</v>
       </c>
       <c r="P3" t="n">
-        <v>318.9635508070666</v>
+        <v>319.0580784158684</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23338,28 +23476,28 @@
         <v>0.0997</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3121087405874696</v>
+        <v>-0.3215793666857587</v>
       </c>
       <c r="J4" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05543536183623898</v>
+        <v>0.05918927088662762</v>
       </c>
       <c r="M4" t="n">
-        <v>7.246900360841349</v>
+        <v>7.245318305862515</v>
       </c>
       <c r="N4" t="n">
-        <v>90.93065276957427</v>
+        <v>90.76200875860519</v>
       </c>
       <c r="O4" t="n">
-        <v>9.535756538920982</v>
+        <v>9.526909717143603</v>
       </c>
       <c r="P4" t="n">
-        <v>316.0896459821763</v>
+        <v>316.1853178940484</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23416,28 +23554,28 @@
         <v>0.0675</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08770634476237701</v>
+        <v>-0.09306694477363363</v>
       </c>
       <c r="J5" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K5" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00506017336015141</v>
+        <v>0.005755995049480211</v>
       </c>
       <c r="M5" t="n">
-        <v>6.788281201012992</v>
+        <v>6.786897243972962</v>
       </c>
       <c r="N5" t="n">
-        <v>83.75014807914737</v>
+        <v>83.48412401672681</v>
       </c>
       <c r="O5" t="n">
-        <v>9.151510699286067</v>
+        <v>9.136964704798132</v>
       </c>
       <c r="P5" t="n">
-        <v>330.678388383272</v>
+        <v>330.7320531218963</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23494,28 +23632,28 @@
         <v>0.0728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09974084569532544</v>
+        <v>0.09902169326727574</v>
       </c>
       <c r="J6" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K6" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007337594766821276</v>
+        <v>0.00730489724152128</v>
       </c>
       <c r="M6" t="n">
-        <v>6.667288162012989</v>
+        <v>6.667274420540213</v>
       </c>
       <c r="N6" t="n">
-        <v>74.33932774353548</v>
+        <v>74.17696353198319</v>
       </c>
       <c r="O6" t="n">
-        <v>8.622025733175208</v>
+        <v>8.612604921391855</v>
       </c>
       <c r="P6" t="n">
-        <v>328.7552395010981</v>
+        <v>328.7623385915297</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23572,28 +23710,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2356949936225654</v>
+        <v>0.2374082500849975</v>
       </c>
       <c r="J7" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K7" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03547008428132359</v>
+        <v>0.03636276764950941</v>
       </c>
       <c r="M7" t="n">
-        <v>6.823318399701452</v>
+        <v>6.811988072635534</v>
       </c>
       <c r="N7" t="n">
-        <v>82.43403433687318</v>
+        <v>82.13323069679221</v>
       </c>
       <c r="O7" t="n">
-        <v>9.079319045879663</v>
+        <v>9.062738587027225</v>
       </c>
       <c r="P7" t="n">
-        <v>323.4545288785803</v>
+        <v>323.4370623579478</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23650,28 +23788,28 @@
         <v>0.0718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3580328893610252</v>
+        <v>0.3612411299081965</v>
       </c>
       <c r="J8" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K8" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08190882120177245</v>
+        <v>0.08413900652665751</v>
       </c>
       <c r="M8" t="n">
-        <v>6.788189447591003</v>
+        <v>6.772236430935815</v>
       </c>
       <c r="N8" t="n">
-        <v>76.97520789244194</v>
+        <v>76.70224187415269</v>
       </c>
       <c r="O8" t="n">
-        <v>8.773551612228763</v>
+        <v>8.757981609603476</v>
       </c>
       <c r="P8" t="n">
-        <v>320.5322513351668</v>
+        <v>320.4993247919321</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23728,28 +23866,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.413922955303025</v>
+        <v>0.414211586267345</v>
       </c>
       <c r="J9" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K9" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09796987600046592</v>
+        <v>0.09919862483588437</v>
       </c>
       <c r="M9" t="n">
-        <v>7.115255234792649</v>
+        <v>7.098895508984584</v>
       </c>
       <c r="N9" t="n">
-        <v>84.54058115223302</v>
+        <v>84.1513982582161</v>
       </c>
       <c r="O9" t="n">
-        <v>9.194595214158861</v>
+        <v>9.173407123758114</v>
       </c>
       <c r="P9" t="n">
-        <v>313.7840880665312</v>
+        <v>313.7810401280095</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23787,7 +23925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J488"/>
+  <dimension ref="A1:J491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47983,6 +48121,162 @@
         </is>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:41+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-46.38318147656677,168.00940318572788</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-46.383006637838136,168.00854762311235</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-46.38291903260265,168.00787802668683</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-46.38275482456248,168.00707456011494</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-46.38246309496747,168.00626141225578</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-46.38217266482376,168.0054630076487</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-46.381896991344455,168.00464097285945</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-46.38163640678484,168.00381083792945</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-46.383181815047635,168.00940317234102</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-46.38306141488903,168.0085398058357</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-46.38298086581924,168.00783630426508</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-46.3827736657083,168.00705427702061</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-46.38249329313578,168.0062331414131</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-46.38218275013645,168.00545386298083</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-46.38186855282723,168.00466049110472</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-46.381656092604466,168.0038012155342</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-46.383238742000884,168.00940092088592</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-46.38307198484092,168.0085382973871</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-46.38299004934782,168.00783010760148</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-46.38284065148914,168.00698216453927</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-46.38258729771268,168.0061451361973</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-46.382272224323074,168.00537273375554</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-46.38197297509673,168.00458882271113</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-46.38173665127821,168.00376183850756</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J491"/>
+  <dimension ref="A1:J493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17531,6 +17531,78 @@
       <c r="J491" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-31 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>313.5915384615384</v>
+      </c>
+      <c r="C492" t="n">
+        <v>299.7788372093023</v>
+      </c>
+      <c r="D492" t="n">
+        <v>298.7364705882353</v>
+      </c>
+      <c r="E492" t="n">
+        <v>315.0930769230769</v>
+      </c>
+      <c r="F492" t="n">
+        <v>319.1430769230769</v>
+      </c>
+      <c r="G492" t="n">
+        <v>323.0330769230769</v>
+      </c>
+      <c r="H492" t="n">
+        <v>319.0030769230769</v>
+      </c>
+      <c r="I492" t="n">
+        <v>314.6433333333333</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>318.1707692307692</v>
+      </c>
+      <c r="C493" t="n">
+        <v>301.8918604651163</v>
+      </c>
+      <c r="D493" t="n">
+        <v>295.9652941176471</v>
+      </c>
+      <c r="E493" t="n">
+        <v>318.1315384615385</v>
+      </c>
+      <c r="F493" t="n">
+        <v>321.5415384615384</v>
+      </c>
+      <c r="G493" t="n">
+        <v>322.5815384615385</v>
+      </c>
+      <c r="H493" t="n">
+        <v>320.2115384615385</v>
+      </c>
+      <c r="I493" t="n">
+        <v>315.4833333333333</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17545,7 +17617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B560"/>
+  <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23153,6 +23225,26 @@
       </c>
       <c r="B560" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-08-31 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -23326,28 +23418,28 @@
         <v>0.1563</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1223259391687414</v>
+        <v>-0.1311669740198036</v>
       </c>
       <c r="J2" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K2" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007865479346165105</v>
+        <v>0.009080302768569082</v>
       </c>
       <c r="M2" t="n">
-        <v>7.861264044377042</v>
+        <v>7.87059684385518</v>
       </c>
       <c r="N2" t="n">
-        <v>104.4741954979095</v>
+        <v>104.4767245977078</v>
       </c>
       <c r="O2" t="n">
-        <v>10.22126193275124</v>
+        <v>10.2213856495931</v>
       </c>
       <c r="P2" t="n">
-        <v>329.1396487222164</v>
+        <v>329.2287391909105</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23398,28 +23490,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.3168984004591895</v>
+        <v>-0.3258472838441364</v>
       </c>
       <c r="J3" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K3" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05396099478193506</v>
+        <v>0.05715523350525542</v>
       </c>
       <c r="M3" t="n">
-        <v>7.536053994016277</v>
+        <v>7.546024082137508</v>
       </c>
       <c r="N3" t="n">
-        <v>95.99034398743066</v>
+        <v>96.00173307909618</v>
       </c>
       <c r="O3" t="n">
-        <v>9.797466202413288</v>
+        <v>9.798047411555844</v>
       </c>
       <c r="P3" t="n">
-        <v>319.0580784158684</v>
+        <v>319.1496512290128</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23476,28 +23568,28 @@
         <v>0.0997</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3215793666857587</v>
+        <v>-0.3306759554975105</v>
       </c>
       <c r="J4" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K4" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05918927088662762</v>
+        <v>0.062623393517524</v>
       </c>
       <c r="M4" t="n">
-        <v>7.245318305862515</v>
+        <v>7.258843209057354</v>
       </c>
       <c r="N4" t="n">
-        <v>90.76200875860519</v>
+        <v>90.84352509759019</v>
       </c>
       <c r="O4" t="n">
-        <v>9.526909717143603</v>
+        <v>9.531186972124205</v>
       </c>
       <c r="P4" t="n">
-        <v>316.1853178940484</v>
+        <v>316.2775579200447</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23554,28 +23646,28 @@
         <v>0.0675</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09306694477363363</v>
+        <v>-0.1030252637753755</v>
       </c>
       <c r="J5" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K5" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005755995049480211</v>
+        <v>0.007060494616091484</v>
       </c>
       <c r="M5" t="n">
-        <v>6.786897243972962</v>
+        <v>6.813230908262969</v>
       </c>
       <c r="N5" t="n">
-        <v>83.48412401672681</v>
+        <v>83.71742271491382</v>
       </c>
       <c r="O5" t="n">
-        <v>9.136964704798132</v>
+        <v>9.149722548521011</v>
       </c>
       <c r="P5" t="n">
-        <v>330.7320531218963</v>
+        <v>330.8322026911063</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23632,28 +23724,28 @@
         <v>0.0728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09902169326727574</v>
+        <v>0.08963500195706985</v>
       </c>
       <c r="J6" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K6" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00730489724152128</v>
+        <v>0.006007745489469474</v>
       </c>
       <c r="M6" t="n">
-        <v>6.667274420540213</v>
+        <v>6.689540240530081</v>
       </c>
       <c r="N6" t="n">
-        <v>74.17696353198319</v>
+        <v>74.37992003399975</v>
       </c>
       <c r="O6" t="n">
-        <v>8.612604921391855</v>
+        <v>8.624379399933641</v>
       </c>
       <c r="P6" t="n">
-        <v>328.7623385915297</v>
+        <v>328.8567031961416</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23710,28 +23802,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2374082500849975</v>
+        <v>0.2315899478854391</v>
       </c>
       <c r="J7" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K7" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03636276764950941</v>
+        <v>0.03489554856704125</v>
       </c>
       <c r="M7" t="n">
-        <v>6.811988072635534</v>
+        <v>6.81165289119769</v>
       </c>
       <c r="N7" t="n">
-        <v>82.13323069679221</v>
+        <v>81.97775961227946</v>
       </c>
       <c r="O7" t="n">
-        <v>9.062738587027225</v>
+        <v>9.054157034880689</v>
       </c>
       <c r="P7" t="n">
-        <v>323.4370623579478</v>
+        <v>323.4962645969978</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23788,28 +23880,28 @@
         <v>0.0718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3612411299081965</v>
+        <v>0.3522578602492108</v>
       </c>
       <c r="J8" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K8" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08413900652665751</v>
+        <v>0.08060137952687574</v>
       </c>
       <c r="M8" t="n">
-        <v>6.772236430935815</v>
+        <v>6.789052364335594</v>
       </c>
       <c r="N8" t="n">
-        <v>76.70224187415269</v>
+        <v>76.82801644278238</v>
       </c>
       <c r="O8" t="n">
-        <v>8.757981609603476</v>
+        <v>8.765159236590193</v>
       </c>
       <c r="P8" t="n">
-        <v>320.4993247919321</v>
+        <v>320.5916053935353</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23866,28 +23958,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.414211586267345</v>
+        <v>0.4058468568985291</v>
       </c>
       <c r="J9" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K9" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09919862483588437</v>
+        <v>0.09603031855904698</v>
       </c>
       <c r="M9" t="n">
-        <v>7.098895508984584</v>
+        <v>7.107975907559758</v>
       </c>
       <c r="N9" t="n">
-        <v>84.1513982582161</v>
+        <v>84.17723512321186</v>
       </c>
       <c r="O9" t="n">
-        <v>9.173407123758114</v>
+        <v>9.17481526371032</v>
       </c>
       <c r="P9" t="n">
-        <v>313.7810401280095</v>
+        <v>313.8672986794808</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23925,7 +24017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J491"/>
+  <dimension ref="A1:J493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48277,6 +48369,110 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-31 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-46.383121751965035,168.00940554781928</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-46.3830077896386,168.0085474587382</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-46.38294683217571,168.0078592687325</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-46.38272398048941,168.00710776470277</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-46.38242681887752,168.00629537305858</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-46.38214921632202,168.00548426912076</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>-46.38180495939369,168.00470413718284</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-46.38159011390195,168.00383346578053</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-46.38316287393529,168.00940392145793</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-46.38302667999758,168.00854476288214</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-46.382924275546905,168.00787448897566</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-46.38274586947523,168.0070842005454</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-46.382444901828414,168.00627844424213</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-46.38214578040786,168.00548738456706</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-46.38181476556744,168.00469740692</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-46.3815972620681,168.00382997177678</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J493"/>
+  <dimension ref="A1:J495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17601,6 +17601,78 @@
         <v>315.4833333333333</v>
       </c>
       <c r="J493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>331.9315384615385</v>
+      </c>
+      <c r="C494" t="n">
+        <v>317.8309302325582</v>
+      </c>
+      <c r="D494" t="n">
+        <v>308.6682352941176</v>
+      </c>
+      <c r="E494" t="n">
+        <v>322.9030769230769</v>
+      </c>
+      <c r="F494" t="n">
+        <v>327.2130769230769</v>
+      </c>
+      <c r="G494" t="n">
+        <v>319.2830769230769</v>
+      </c>
+      <c r="H494" t="n">
+        <v>320.9630769230769</v>
+      </c>
+      <c r="I494" t="n">
+        <v>319.4833333333333</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>338.5561538461538</v>
+      </c>
+      <c r="C495" t="n">
+        <v>320.430465116279</v>
+      </c>
+      <c r="D495" t="n">
+        <v>313.6617647058824</v>
+      </c>
+      <c r="E495" t="n">
+        <v>335.2923076923077</v>
+      </c>
+      <c r="F495" t="n">
+        <v>337.0223076923077</v>
+      </c>
+      <c r="G495" t="n">
+        <v>334.6923076923077</v>
+      </c>
+      <c r="H495" t="n">
+        <v>336.8323076923077</v>
+      </c>
+      <c r="I495" t="n">
+        <v>337.08</v>
+      </c>
+      <c r="J495" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17617,7 +17689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B562"/>
+  <dimension ref="A1:B564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23245,6 +23317,26 @@
       </c>
       <c r="B562" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -24017,7 +24109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J493"/>
+  <dimension ref="A1:J495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48473,6 +48565,110 @@
         </is>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-46.38328644707739,168.00939903414766</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-46.383169174755835,168.00852442727964</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-46.38302767403967,168.00780471999641</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-46.3827802434838,168.0070471958311</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>-46.38248766178987,168.0062384133549</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-46.38212068125669,168.0055101427041</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>-46.38182086399604,168.00469322138923</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>-46.38163130095248,168.00381333365033</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-46.38334593681311,168.00939668131608</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-46.38319241451104,168.00852111069244</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-46.38306831999862,168.00777729371706</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-46.38286949503575,168.00695111340295</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-46.38256161740321,168.0061691776308</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-46.38223793545352,168.00540382465545</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>-46.38194963629688,168.00460484091548</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-46.38178104363787,168.00374013949408</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -23510,28 +23510,28 @@
         <v>0.1563</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1311669740198036</v>
+        <v>-0.1229245614529763</v>
       </c>
       <c r="J2" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K2" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009080302768569082</v>
+        <v>0.008027389952660058</v>
       </c>
       <c r="M2" t="n">
-        <v>7.87059684385518</v>
+        <v>7.877430442107385</v>
       </c>
       <c r="N2" t="n">
-        <v>104.4767245977078</v>
+        <v>104.4528046586609</v>
       </c>
       <c r="O2" t="n">
-        <v>10.2213856495931</v>
+        <v>10.22021548983488</v>
       </c>
       <c r="P2" t="n">
-        <v>329.2287391909105</v>
+        <v>329.1454135536937</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23582,28 +23582,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.3258472838441364</v>
+        <v>-0.3182388363963173</v>
       </c>
       <c r="J3" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K3" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05715523350525542</v>
+        <v>0.0549899477292044</v>
       </c>
       <c r="M3" t="n">
-        <v>7.546024082137508</v>
+        <v>7.550680294862656</v>
       </c>
       <c r="N3" t="n">
-        <v>96.00173307909618</v>
+        <v>95.89877447765755</v>
       </c>
       <c r="O3" t="n">
-        <v>9.798047411555844</v>
+        <v>9.792791965402795</v>
       </c>
       <c r="P3" t="n">
-        <v>319.1496512290128</v>
+        <v>319.0715581116966</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23660,28 +23660,28 @@
         <v>0.0997</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3306759554975105</v>
+        <v>-0.3276004643029899</v>
       </c>
       <c r="J4" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K4" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.062623393517524</v>
+        <v>0.06203567559635148</v>
       </c>
       <c r="M4" t="n">
-        <v>7.258843209057354</v>
+        <v>7.242134098864495</v>
       </c>
       <c r="N4" t="n">
-        <v>90.84352509759019</v>
+        <v>90.52499607733662</v>
       </c>
       <c r="O4" t="n">
-        <v>9.531186972124205</v>
+        <v>9.514462469174841</v>
       </c>
       <c r="P4" t="n">
-        <v>316.2775579200447</v>
+        <v>316.2462718776807</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23738,28 +23738,28 @@
         <v>0.0675</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1030252637753755</v>
+        <v>-0.102203972615097</v>
       </c>
       <c r="J5" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K5" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007060494616091484</v>
+        <v>0.006999914071935898</v>
       </c>
       <c r="M5" t="n">
-        <v>6.813230908262969</v>
+        <v>6.810145874238793</v>
       </c>
       <c r="N5" t="n">
-        <v>83.71742271491382</v>
+        <v>83.5247482962275</v>
       </c>
       <c r="O5" t="n">
-        <v>9.149722548521011</v>
+        <v>9.139187507444385</v>
       </c>
       <c r="P5" t="n">
-        <v>330.8322026911063</v>
+        <v>330.8238911718311</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23816,28 +23816,28 @@
         <v>0.0728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08963500195706985</v>
+        <v>0.09041091391325393</v>
       </c>
       <c r="J6" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K6" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006007745489469474</v>
+        <v>0.006160077664670527</v>
       </c>
       <c r="M6" t="n">
-        <v>6.689540240530081</v>
+        <v>6.681509646161955</v>
       </c>
       <c r="N6" t="n">
-        <v>74.37992003399975</v>
+        <v>74.16603827787809</v>
       </c>
       <c r="O6" t="n">
-        <v>8.624379399933641</v>
+        <v>8.611970638470506</v>
       </c>
       <c r="P6" t="n">
-        <v>328.8567031961416</v>
+        <v>328.8488584400046</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23894,28 +23894,28 @@
         <v>0.0704</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2315899478854391</v>
+        <v>0.2294197851616139</v>
       </c>
       <c r="J7" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K7" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03489554856704125</v>
+        <v>0.03446037462738616</v>
       </c>
       <c r="M7" t="n">
-        <v>6.81165289119769</v>
+        <v>6.815335594410874</v>
       </c>
       <c r="N7" t="n">
-        <v>81.97775961227946</v>
+        <v>81.90849756344127</v>
       </c>
       <c r="O7" t="n">
-        <v>9.054157034880689</v>
+        <v>9.050331351030263</v>
       </c>
       <c r="P7" t="n">
-        <v>323.4962645969978</v>
+        <v>323.5183773918629</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23972,28 +23972,28 @@
         <v>0.0718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3522578602492108</v>
+        <v>0.3514674400067636</v>
       </c>
       <c r="J8" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K8" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08060137952687574</v>
+        <v>0.08070478582618335</v>
       </c>
       <c r="M8" t="n">
-        <v>6.789052364335594</v>
+        <v>6.794163200963151</v>
       </c>
       <c r="N8" t="n">
-        <v>76.82801644278238</v>
+        <v>76.77148062365727</v>
       </c>
       <c r="O8" t="n">
-        <v>8.765159236590193</v>
+        <v>8.761933612146194</v>
       </c>
       <c r="P8" t="n">
-        <v>320.5916053935353</v>
+        <v>320.5997139991807</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24050,28 +24050,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4058468568985291</v>
+        <v>0.4091407383323365</v>
       </c>
       <c r="J9" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K9" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09603031855904698</v>
+        <v>0.09785868073183246</v>
       </c>
       <c r="M9" t="n">
-        <v>7.107975907559758</v>
+        <v>7.115946377011694</v>
       </c>
       <c r="N9" t="n">
-        <v>84.17723512321186</v>
+        <v>84.20900155778075</v>
       </c>
       <c r="O9" t="n">
-        <v>9.17481526371032</v>
+        <v>9.176546276120485</v>
       </c>
       <c r="P9" t="n">
-        <v>313.8672986794808</v>
+        <v>313.83319368145</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">

--- a/data/nzd0534/nzd0534.xlsx
+++ b/data/nzd0534/nzd0534.xlsx
@@ -23501,13 +23501,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13</v>
+        <v>0.095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1088</v>
+        <v>0.0649</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1563</v>
+        <v>0.1654</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1229219810628213</v>
@@ -23578,9 +23578,15 @@
       <c r="E3" t="n">
         <v>0.8562940466761179</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.166</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.3182413737600984</v>
       </c>
@@ -23651,13 +23657,13 @@
         <v>0.7180116615987354</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.0901</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0997</v>
+        <v>0.1068</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3275643864125341</v>
@@ -23729,13 +23735,13 @@
         <v>0.5743057082742954</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0586</v>
+        <v>0.0702</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0675</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1022050067320288</v>
@@ -23807,13 +23813,13 @@
         <v>0.4308116556413764</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0605</v>
+        <v>0.0585</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0728</v>
+        <v>0.118</v>
       </c>
       <c r="I6" t="n">
         <v>0.09040948862615521</v>
@@ -23885,13 +23891,13 @@
         <v>0.2871057023188572</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0594</v>
+        <v>0.054</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0704</v>
+        <v>0.0997</v>
       </c>
       <c r="I7" t="n">
         <v>0.2294232170220021</v>
@@ -23963,13 +23969,13 @@
         <v>0.1433997489930057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0598</v>
+        <v>0.0534</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0718</v>
+        <v>0.1053</v>
       </c>
       <c r="I8" t="n">
         <v>0.3514708538920726</v>
@@ -24041,13 +24047,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0572</v>
+        <v>0.0494</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="I9" t="n">
         <v>0.4091252055510688</v>
